--- a/LIVE.xlsx
+++ b/LIVE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71719C2F-2618-45CA-9297-3E740FA34202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75081885-AFCA-4FA4-8B46-3F3720EC9AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
   <si>
     <t>名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>公視</t>
-  </si>
-  <si>
-    <t>yt_ptslivestream</t>
   </si>
   <si>
     <t>我們這一家</t>
@@ -220,6 +217,33 @@
         $(yt-dlp -g YT網址)
         EOL</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東森新聞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yt_51EBC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=S5WOGu2HSes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TVBS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yt_TVBS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yt_ptslivestream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/@TVBSNEWS01/live</t>
   </si>
 </sst>
 </file>
@@ -317,8 +341,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{68DAA27C-56B5-4770-BD9E-22BCC8181B52}" name="新聞" displayName="新聞" ref="A1:G15" totalsRowShown="0">
-  <autoFilter ref="A1:G15" xr:uid="{68DAA27C-56B5-4770-BD9E-22BCC8181B52}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{68DAA27C-56B5-4770-BD9E-22BCC8181B52}" name="新聞" displayName="新聞" ref="A1:G17" totalsRowShown="0">
+  <autoFilter ref="A1:G17" xr:uid="{68DAA27C-56B5-4770-BD9E-22BCC8181B52}"/>
   <tableColumns count="7">
     <tableColumn id="6" xr3:uid="{66D09BC3-9A8B-41E8-990F-024C9E2057BC}" name="序號" dataDxfId="3">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
@@ -622,10 +646,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -639,10 +666,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
         <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -651,22 +678,22 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
         <v>30</v>
-      </c>
-      <c r="G1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <f t="shared" ref="A2:A11" si="0">ROW()-1</f>
+        <f t="shared" ref="A2:A13" si="0">ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -675,7 +702,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" t="str">
         <f>"https://raw.githubusercontent.com/wilsonYM/vpnytm/main/"&amp;D2&amp;".m3u8"</f>
@@ -692,23 +719,23 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F11" si="1">"https://raw.githubusercontent.com/wilsonYM/vpnytm/main/"&amp;D3&amp;".m3u8"</f>
+        <f t="shared" ref="F3:F13" si="1">"https://raw.githubusercontent.com/wilsonYM/vpnytm/main/"&amp;D3&amp;".m3u8"</f>
         <v>https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_globalnewstw1.m3u8</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G11" si="2">C3&amp;","&amp;F3</f>
+        <f t="shared" ref="G3:G13" si="2">C3&amp;","&amp;F3</f>
         <v>寰宇新聞台1,https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_globalnewstw1.m3u8</v>
       </c>
     </row>
@@ -718,7 +745,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -727,7 +754,7 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="1"/>
@@ -740,28 +767,28 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>43</v>
+        <v>52</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_57EBC.m3u8</v>
+        <f>"https://raw.githubusercontent.com/wilsonYM/vpnytm/main/"&amp;D5&amp;".m3u8"</f>
+        <v>https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_51EBC.m3u8</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="2"/>
-        <v>東森財經新聞,https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_57EBC.m3u8</v>
+        <f>C5&amp;","&amp;F5</f>
+        <v>東森新聞,https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_51EBC.m3u8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -770,24 +797,24 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_setnews.m3u8</v>
+        <v>https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_57EBC.m3u8</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="2"/>
-        <v>三立新聞台,https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_setnews.m3u8</v>
+        <v>東森財經新聞,https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_57EBC.m3u8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -796,24 +823,24 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_setinews.m3u8</v>
+        <v>https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_setnews.m3u8</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="2"/>
-        <v>三立inews,https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_setinews.m3u8</v>
+        <v>三立新聞台,https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_setnews.m3u8</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -822,24 +849,24 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_CtsTw.m3u8</v>
+        <v>https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_setinews.m3u8</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="2"/>
-        <v>華視新聞 CH52,https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_CtsTw.m3u8</v>
+        <v>三立inews,https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_setinews.m3u8</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -848,24 +875,24 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_FTV_News.m3u8</v>
+        <v>https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_CtsTw.m3u8</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="2"/>
-        <v>民視新聞,https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_FTV_News.m3u8</v>
+        <v>華視新聞 CH52,https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_CtsTw.m3u8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -874,24 +901,24 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_TTV_NEWS.m3u8</v>
+        <v>https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_FTV_News.m3u8</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="2"/>
-        <v>台視新聞,https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_TTV_NEWS.m3u8</v>
+        <v>民視新聞,https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_FTV_News.m3u8</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -900,102 +927,102 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_ptslivestream.m3u8</v>
+        <v>https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_TTV_NEWS.m3u8</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="2"/>
-        <v>公視,https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_ptslivestream.m3u8</v>
+        <v>台視新聞,https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_TTV_NEWS.m3u8</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <f t="shared" ref="A12:A15" si="3">ROW()-1</f>
+        <f>ROW()-1</f>
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F12" t="str">
         <f>"https://raw.githubusercontent.com/wilsonYM/vpnytm/main/"&amp;D12&amp;".m3u8"</f>
-        <v>https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_Our_family.m3u8</v>
+        <v>https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_TVBS.m3u8</v>
       </c>
       <c r="G12" t="str">
         <f>C12&amp;","&amp;F12</f>
-        <v>我們這一家,https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_Our_family.m3u8</v>
+        <v>TVBS,https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_TVBS.m3u8</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F13" t="str">
-        <f>"https://raw.githubusercontent.com/wilsonYM/vpnytm/main/"&amp;D13&amp;".m3u8"</f>
-        <v>https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_HungerGames.m3u8</v>
+        <f t="shared" si="1"/>
+        <v>https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_ptslivestream.m3u8</v>
       </c>
       <c r="G13" t="str">
-        <f>C13&amp;","&amp;F13</f>
-        <v>飢餓遊戲,https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_HungerGames.m3u8</v>
+        <f t="shared" si="2"/>
+        <v>公視,https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_ptslivestream.m3u8</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A14:A17" si="3">ROW()-1</f>
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F14" t="str">
         <f>"https://raw.githubusercontent.com/wilsonYM/vpnytm/main/"&amp;D14&amp;".m3u8"</f>
-        <v>https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_Yulinglong.m3u8</v>
+        <v>https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_Our_family.m3u8</v>
       </c>
       <c r="G14" t="str">
         <f>C14&amp;","&amp;F14</f>
-        <v>歡喜玉玲龍,https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_Yulinglong.m3u8</v>
+        <v>我們這一家,https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_Our_family.m3u8</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1004,23 +1031,75 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F15" t="str">
         <f>"https://raw.githubusercontent.com/wilsonYM/vpnytm/main/"&amp;D15&amp;".m3u8"</f>
-        <v>https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_genius_rush_rush.m3u8</v>
+        <v>https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_HungerGames.m3u8</v>
       </c>
       <c r="G15" t="str">
         <f>C15&amp;","&amp;F15</f>
+        <v>飢餓遊戲,https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_HungerGames.m3u8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="str">
+        <f>"https://raw.githubusercontent.com/wilsonYM/vpnytm/main/"&amp;D16&amp;".m3u8"</f>
+        <v>https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_Yulinglong.m3u8</v>
+      </c>
+      <c r="G16" t="str">
+        <f>C16&amp;","&amp;F16</f>
+        <v>歡喜玉玲龍,https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_Yulinglong.m3u8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" t="str">
+        <f>"https://raw.githubusercontent.com/wilsonYM/vpnytm/main/"&amp;D17&amp;".m3u8"</f>
+        <v>https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_genius_rush_rush.m3u8</v>
+      </c>
+      <c r="G17" t="str">
+        <f>C17&amp;","&amp;F17</f>
         <v>天才衝衝衝,https://raw.githubusercontent.com/wilsonYM/vpnytm/main/yt_genius_rush_rush.m3u8</v>
       </c>
     </row>
@@ -1029,10 +1108,11 @@
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{29D48FB7-BE80-4BBF-AD12-07A8ACF83D04}"/>
     <hyperlink ref="E2" r:id="rId2" xr:uid="{FD7FFAB2-F836-4FE8-AACE-3E74924C4E93}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{67B0D96A-1215-409B-AB9A-A98B9B531854}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1053,7 +1133,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="141.75">
       <c r="A1" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="177" customHeight="1">
@@ -1140,15 +1220,15 @@
         #EXT-X-STREAM-INF:PROGRAM-ID=1,BANDWIDTH=2560000
         $(yt-dlp -g "&amp;新聞[[#This Row],[YT]]&amp;")
         EOL"</f>
-        <v>#東森財經新聞
-    - name: Get yt_57EBC.m3u8
-      run: |
-        touch ./yt_57EBC.m3u8
-        sudo cat &gt;./yt_57EBC.m3u8 &lt;&lt;EOL
-        #EXTM3U
-        #EXT-X-VERSION:3
-        #EXT-X-STREAM-INF:PROGRAM-ID=1,BANDWIDTH=2560000
-        $(yt-dlp -g https://www.youtube.com/@57ETFN/live)
+        <v>#東森新聞
+    - name: Get yt_51EBC.m3u8
+      run: |
+        touch ./yt_51EBC.m3u8
+        sudo cat &gt;./yt_51EBC.m3u8 &lt;&lt;EOL
+        #EXTM3U
+        #EXT-X-VERSION:3
+        #EXT-X-STREAM-INF:PROGRAM-ID=1,BANDWIDTH=2560000
+        $(yt-dlp -g https://www.youtube.com/watch?v=S5WOGu2HSes)
         EOL</v>
       </c>
     </row>
@@ -1164,15 +1244,15 @@
         #EXT-X-STREAM-INF:PROGRAM-ID=1,BANDWIDTH=2560000
         $(yt-dlp -g "&amp;新聞[[#This Row],[YT]]&amp;")
         EOL"</f>
-        <v>#三立新聞台
-    - name: Get yt_setnews.m3u8
-      run: |
-        touch ./yt_setnews.m3u8
-        sudo cat &gt;./yt_setnews.m3u8 &lt;&lt;EOL
-        #EXTM3U
-        #EXT-X-VERSION:3
-        #EXT-X-STREAM-INF:PROGRAM-ID=1,BANDWIDTH=2560000
-        $(yt-dlp -g https://www.youtube.com/@setnews/live)
+        <v>#東森財經新聞
+    - name: Get yt_57EBC.m3u8
+      run: |
+        touch ./yt_57EBC.m3u8
+        sudo cat &gt;./yt_57EBC.m3u8 &lt;&lt;EOL
+        #EXTM3U
+        #EXT-X-VERSION:3
+        #EXT-X-STREAM-INF:PROGRAM-ID=1,BANDWIDTH=2560000
+        $(yt-dlp -g https://www.youtube.com/@57ETFN/live)
         EOL</v>
       </c>
     </row>
@@ -1188,15 +1268,15 @@
         #EXT-X-STREAM-INF:PROGRAM-ID=1,BANDWIDTH=2560000
         $(yt-dlp -g "&amp;新聞[[#This Row],[YT]]&amp;")
         EOL"</f>
-        <v>#三立inews
-    - name: Get yt_setinews.m3u8
-      run: |
-        touch ./yt_setinews.m3u8
-        sudo cat &gt;./yt_setinews.m3u8 &lt;&lt;EOL
-        #EXTM3U
-        #EXT-X-VERSION:3
-        #EXT-X-STREAM-INF:PROGRAM-ID=1,BANDWIDTH=2560000
-        $(yt-dlp -g https://www.youtube.com/@setinews/live)
+        <v>#三立新聞台
+    - name: Get yt_setnews.m3u8
+      run: |
+        touch ./yt_setnews.m3u8
+        sudo cat &gt;./yt_setnews.m3u8 &lt;&lt;EOL
+        #EXTM3U
+        #EXT-X-VERSION:3
+        #EXT-X-STREAM-INF:PROGRAM-ID=1,BANDWIDTH=2560000
+        $(yt-dlp -g https://www.youtube.com/@setnews/live)
         EOL</v>
       </c>
     </row>
@@ -1212,15 +1292,15 @@
         #EXT-X-STREAM-INF:PROGRAM-ID=1,BANDWIDTH=2560000
         $(yt-dlp -g "&amp;新聞[[#This Row],[YT]]&amp;")
         EOL"</f>
-        <v>#華視新聞 CH52
-    - name: Get yt_CtsTw.m3u8
-      run: |
-        touch ./yt_CtsTw.m3u8
-        sudo cat &gt;./yt_CtsTw.m3u8 &lt;&lt;EOL
-        #EXTM3U
-        #EXT-X-VERSION:3
-        #EXT-X-STREAM-INF:PROGRAM-ID=1,BANDWIDTH=2560000
-        $(yt-dlp -g https://www.youtube.com/@CtsTw/live)
+        <v>#三立inews
+    - name: Get yt_setinews.m3u8
+      run: |
+        touch ./yt_setinews.m3u8
+        sudo cat &gt;./yt_setinews.m3u8 &lt;&lt;EOL
+        #EXTM3U
+        #EXT-X-VERSION:3
+        #EXT-X-STREAM-INF:PROGRAM-ID=1,BANDWIDTH=2560000
+        $(yt-dlp -g https://www.youtube.com/@setinews/live)
         EOL</v>
       </c>
     </row>
@@ -1236,15 +1316,15 @@
         #EXT-X-STREAM-INF:PROGRAM-ID=1,BANDWIDTH=2560000
         $(yt-dlp -g "&amp;新聞[[#This Row],[YT]]&amp;")
         EOL"</f>
-        <v>#民視新聞
-    - name: Get yt_FTV_News.m3u8
-      run: |
-        touch ./yt_FTV_News.m3u8
-        sudo cat &gt;./yt_FTV_News.m3u8 &lt;&lt;EOL
-        #EXTM3U
-        #EXT-X-VERSION:3
-        #EXT-X-STREAM-INF:PROGRAM-ID=1,BANDWIDTH=2560000
-        $(yt-dlp -g https://www.youtube.com/@FTV_News/live)
+        <v>#華視新聞 CH52
+    - name: Get yt_CtsTw.m3u8
+      run: |
+        touch ./yt_CtsTw.m3u8
+        sudo cat &gt;./yt_CtsTw.m3u8 &lt;&lt;EOL
+        #EXTM3U
+        #EXT-X-VERSION:3
+        #EXT-X-STREAM-INF:PROGRAM-ID=1,BANDWIDTH=2560000
+        $(yt-dlp -g https://www.youtube.com/@CtsTw/live)
         EOL</v>
       </c>
     </row>
@@ -1260,15 +1340,15 @@
         #EXT-X-STREAM-INF:PROGRAM-ID=1,BANDWIDTH=2560000
         $(yt-dlp -g "&amp;新聞[[#This Row],[YT]]&amp;")
         EOL"</f>
-        <v>#台視新聞
-    - name: Get yt_TTV_NEWS.m3u8
-      run: |
-        touch ./yt_TTV_NEWS.m3u8
-        sudo cat &gt;./yt_TTV_NEWS.m3u8 &lt;&lt;EOL
-        #EXTM3U
-        #EXT-X-VERSION:3
-        #EXT-X-STREAM-INF:PROGRAM-ID=1,BANDWIDTH=2560000
-        $(yt-dlp -g https://www.youtube.com/@TTV_NEWS/live)
+        <v>#民視新聞
+    - name: Get yt_FTV_News.m3u8
+      run: |
+        touch ./yt_FTV_News.m3u8
+        sudo cat &gt;./yt_FTV_News.m3u8 &lt;&lt;EOL
+        #EXTM3U
+        #EXT-X-VERSION:3
+        #EXT-X-STREAM-INF:PROGRAM-ID=1,BANDWIDTH=2560000
+        $(yt-dlp -g https://www.youtube.com/@FTV_News/live)
         EOL</v>
       </c>
     </row>
@@ -1284,15 +1364,15 @@
         #EXT-X-STREAM-INF:PROGRAM-ID=1,BANDWIDTH=2560000
         $(yt-dlp -g "&amp;新聞[[#This Row],[YT]]&amp;")
         EOL"</f>
-        <v>#公視
-    - name: Get yt_ptslivestream.m3u8
-      run: |
-        touch ./yt_ptslivestream.m3u8
-        sudo cat &gt;./yt_ptslivestream.m3u8 &lt;&lt;EOL
-        #EXTM3U
-        #EXT-X-VERSION:3
-        #EXT-X-STREAM-INF:PROGRAM-ID=1,BANDWIDTH=2560000
-        $(yt-dlp -g https://www.youtube.com/@ptslivestream/live)
+        <v>#台視新聞
+    - name: Get yt_TTV_NEWS.m3u8
+      run: |
+        touch ./yt_TTV_NEWS.m3u8
+        sudo cat &gt;./yt_TTV_NEWS.m3u8 &lt;&lt;EOL
+        #EXTM3U
+        #EXT-X-VERSION:3
+        #EXT-X-STREAM-INF:PROGRAM-ID=1,BANDWIDTH=2560000
+        $(yt-dlp -g https://www.youtube.com/@TTV_NEWS/live)
         EOL</v>
       </c>
     </row>
@@ -1308,15 +1388,15 @@
         #EXT-X-STREAM-INF:PROGRAM-ID=1,BANDWIDTH=2560000
         $(yt-dlp -g "&amp;新聞[[#This Row],[YT]]&amp;")
         EOL"</f>
-        <v>#我們這一家
-    - name: Get yt_Our_family.m3u8
-      run: |
-        touch ./yt_Our_family.m3u8
-        sudo cat &gt;./yt_Our_family.m3u8 &lt;&lt;EOL
-        #EXTM3U
-        #EXT-X-VERSION:3
-        #EXT-X-STREAM-INF:PROGRAM-ID=1,BANDWIDTH=2560000
-        $(yt-dlp -g https://www.youtube.com/watch?v=UK81GCw1KE8)
+        <v>#TVBS
+    - name: Get yt_TVBS.m3u8
+      run: |
+        touch ./yt_TVBS.m3u8
+        sudo cat &gt;./yt_TVBS.m3u8 &lt;&lt;EOL
+        #EXTM3U
+        #EXT-X-VERSION:3
+        #EXT-X-STREAM-INF:PROGRAM-ID=1,BANDWIDTH=2560000
+        $(yt-dlp -g https://www.youtube.com/@TVBSNEWS01/live)
         EOL</v>
       </c>
     </row>
@@ -1332,15 +1412,15 @@
         #EXT-X-STREAM-INF:PROGRAM-ID=1,BANDWIDTH=2560000
         $(yt-dlp -g "&amp;新聞[[#This Row],[YT]]&amp;")
         EOL"</f>
-        <v>#飢餓遊戲
-    - name: Get yt_HungerGames.m3u8
-      run: |
-        touch ./yt_HungerGames.m3u8
-        sudo cat &gt;./yt_HungerGames.m3u8 &lt;&lt;EOL
-        #EXTM3U
-        #EXT-X-VERSION:3
-        #EXT-X-STREAM-INF:PROGRAM-ID=1,BANDWIDTH=2560000
-        $(yt-dlp -g https://www.youtube.com/@HungerGames123/live)
+        <v>#公視
+    - name: Get yt_ptslivestream.m3u8
+      run: |
+        touch ./yt_ptslivestream.m3u8
+        sudo cat &gt;./yt_ptslivestream.m3u8 &lt;&lt;EOL
+        #EXTM3U
+        #EXT-X-VERSION:3
+        #EXT-X-STREAM-INF:PROGRAM-ID=1,BANDWIDTH=2560000
+        $(yt-dlp -g https://www.youtube.com/@ptslivestream/live)
         EOL</v>
       </c>
     </row>
@@ -1356,15 +1436,15 @@
         #EXT-X-STREAM-INF:PROGRAM-ID=1,BANDWIDTH=2560000
         $(yt-dlp -g "&amp;新聞[[#This Row],[YT]]&amp;")
         EOL"</f>
-        <v>#歡喜玉玲龍
-    - name: Get yt_Yulinglong.m3u8
-      run: |
-        touch ./yt_Yulinglong.m3u8
-        sudo cat &gt;./yt_Yulinglong.m3u8 &lt;&lt;EOL
-        #EXTM3U
-        #EXT-X-VERSION:3
-        #EXT-X-STREAM-INF:PROGRAM-ID=1,BANDWIDTH=2560000
-        $(yt-dlp -g https://www.youtube.com/@ctvent_classic/live)
+        <v>#我們這一家
+    - name: Get yt_Our_family.m3u8
+      run: |
+        touch ./yt_Our_family.m3u8
+        sudo cat &gt;./yt_Our_family.m3u8 &lt;&lt;EOL
+        #EXTM3U
+        #EXT-X-VERSION:3
+        #EXT-X-STREAM-INF:PROGRAM-ID=1,BANDWIDTH=2560000
+        $(yt-dlp -g https://www.youtube.com/watch?v=UK81GCw1KE8)
         EOL</v>
       </c>
     </row>
@@ -1380,6 +1460,54 @@
         #EXT-X-STREAM-INF:PROGRAM-ID=1,BANDWIDTH=2560000
         $(yt-dlp -g "&amp;新聞[[#This Row],[YT]]&amp;")
         EOL"</f>
+        <v>#飢餓遊戲
+    - name: Get yt_HungerGames.m3u8
+      run: |
+        touch ./yt_HungerGames.m3u8
+        sudo cat &gt;./yt_HungerGames.m3u8 &lt;&lt;EOL
+        #EXTM3U
+        #EXT-X-VERSION:3
+        #EXT-X-STREAM-INF:PROGRAM-ID=1,BANDWIDTH=2560000
+        $(yt-dlp -g https://www.youtube.com/@HungerGames123/live)
+        EOL</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="177" customHeight="1">
+      <c r="A16" s="3" t="str">
+        <f>"#"&amp;新聞[[#This Row],[名稱]]&amp;"
+    - name: Get "&amp;新聞[[#This Row],[檔名]]&amp;".m3u8
+      run: |
+        touch ./"&amp;新聞[[#This Row],[檔名]]&amp;".m3u8
+        sudo cat &gt;./"&amp;新聞[[#This Row],[檔名]]&amp;".m3u8 &lt;&lt;EOL
+        #EXTM3U
+        #EXT-X-VERSION:3
+        #EXT-X-STREAM-INF:PROGRAM-ID=1,BANDWIDTH=2560000
+        $(yt-dlp -g "&amp;新聞[[#This Row],[YT]]&amp;")
+        EOL"</f>
+        <v>#歡喜玉玲龍
+    - name: Get yt_Yulinglong.m3u8
+      run: |
+        touch ./yt_Yulinglong.m3u8
+        sudo cat &gt;./yt_Yulinglong.m3u8 &lt;&lt;EOL
+        #EXTM3U
+        #EXT-X-VERSION:3
+        #EXT-X-STREAM-INF:PROGRAM-ID=1,BANDWIDTH=2560000
+        $(yt-dlp -g https://www.youtube.com/@ctvent_classic/live)
+        EOL</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="177" customHeight="1">
+      <c r="A17" s="3" t="str">
+        <f>"#"&amp;新聞[[#This Row],[名稱]]&amp;"
+    - name: Get "&amp;新聞[[#This Row],[檔名]]&amp;".m3u8
+      run: |
+        touch ./"&amp;新聞[[#This Row],[檔名]]&amp;".m3u8
+        sudo cat &gt;./"&amp;新聞[[#This Row],[檔名]]&amp;".m3u8 &lt;&lt;EOL
+        #EXTM3U
+        #EXT-X-VERSION:3
+        #EXT-X-STREAM-INF:PROGRAM-ID=1,BANDWIDTH=2560000
+        $(yt-dlp -g "&amp;新聞[[#This Row],[YT]]&amp;")
+        EOL"</f>
         <v>#天才衝衝衝
     - name: Get yt_genius_rush_rush.m3u8
       run: |
@@ -1390,36 +1518,6 @@
         #EXT-X-STREAM-INF:PROGRAM-ID=1,BANDWIDTH=2560000
         $(yt-dlp -g https://www.youtube.com/@CTSSHOW/live)
         EOL</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="177" customHeight="1">
-      <c r="A16" s="3" t="e">
-        <f>"#"&amp;新聞[[#This Row],[名稱]]&amp;"
-    - name: Get "&amp;新聞[[#This Row],[檔名]]&amp;".m3u8
-      run: |
-        touch ./"&amp;新聞[[#This Row],[檔名]]&amp;".m3u8
-        sudo cat &gt;./"&amp;新聞[[#This Row],[檔名]]&amp;".m3u8 &lt;&lt;EOL
-        #EXTM3U
-        #EXT-X-VERSION:3
-        #EXT-X-STREAM-INF:PROGRAM-ID=1,BANDWIDTH=2560000
-        $(yt-dlp -g "&amp;新聞[[#This Row],[YT]]&amp;")
-        EOL"</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="177" customHeight="1">
-      <c r="A17" s="3" t="e">
-        <f>"#"&amp;新聞[[#This Row],[名稱]]&amp;"
-    - name: Get "&amp;新聞[[#This Row],[檔名]]&amp;".m3u8
-      run: |
-        touch ./"&amp;新聞[[#This Row],[檔名]]&amp;".m3u8
-        sudo cat &gt;./"&amp;新聞[[#This Row],[檔名]]&amp;".m3u8 &lt;&lt;EOL
-        #EXTM3U
-        #EXT-X-VERSION:3
-        #EXT-X-STREAM-INF:PROGRAM-ID=1,BANDWIDTH=2560000
-        $(yt-dlp -g "&amp;新聞[[#This Row],[YT]]&amp;")
-        EOL"</f>
-        <v>#VALUE!</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="126" customHeight="1"/>
